--- a/biology/Botanique/Limnanthaceae/Limnanthaceae.xlsx
+++ b/biology/Botanique/Limnanthaceae/Limnanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Limnanthacées est une famille de plantes à fleurs dicotylédones qui comprend une dizaine d'espèces réparties en 2 genres.
 Ce sont de petites plantes herbacées plus ou moins succulentes, des zones marécageuses des régions tempérées d'Amérique du Nord.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Limnanthes, composé des mots grecs λίμνη, «  eau stagnante, marais, étang », et άνθος / anthos, fleur[1], pour qualifier une plante vivant en zones de marécages.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Limnanthes, composé des mots grecs λίμνη, «  eau stagnante, marais, étang », et άνθος / anthos, fleur, pour qualifier une plante vivant en zones de marécages.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[2] situe cette famille dans l'ordre des Geraniales.
-La classification phylogénétique APG III (2009)[3] la situe dans les Brassicales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) situe cette famille dans l'ordre des Geraniales.
+La classification phylogénétique APG III (2009) la situe dans les Brassicales.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010)[4], NCBI  (21 juin 2010)[5], DELTA Angio           (21 juin 2010)[6] et ITIS      (21 juin 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010), NCBI  (21 juin 2010), DELTA Angio           (21 juin 2010) et ITIS      (21 juin 2010) :
 Floerkea Willd.
 Limnanthes R.Br.</t>
         </is>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (21 juin 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 juin 2010) :
 genre Floerkea
 Floerkea proserpinacoides
 genre Limnanthes
